--- a/results/summary_graph_classification_GCN_fosr.csv.xlsx
+++ b/results/summary_graph_classification_GCN_fosr.csv.xlsx
@@ -774,10 +774,10 @@
         <v>40</v>
       </c>
       <c r="C25" t="n">
-        <v>71.33928571428571</v>
+        <v>72.41964285714285</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0075992581539118</v>
+        <v>0.0086709071095267</v>
       </c>
     </row>
   </sheetData>
